--- a/Versbestand/Konkordanz AHD.xlsx
+++ b/Versbestand/Konkordanz AHD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormillet/Dropbox/Armer Heinrich/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormillet/Hard_Disk/Armer Heinrich/AHD/Armer_Heinrich/Armer_Heinrich/Versbestand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD6B38-620C-234A-A69D-7341887A8F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B37B089-CDD4-974D-B2BC-C83CB34831BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51640" yWindow="460" windowWidth="15400" windowHeight="28340" xr2:uid="{2B06C02D-98E5-E041-83B8-6048555D4B48}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2B06C02D-98E5-E041-83B8-6048555D4B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EFA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -715,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,6 +762,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +773,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8EFA00"/>
+      <color rgb="FF73FDD6"/>
       <color rgb="FF73FB79"/>
       <color rgb="FFFFD579"/>
-      <color rgb="FF73FDD6"/>
-      <color rgb="FF8EFA00"/>
       <color rgb="FFFF9300"/>
     </mruColors>
   </colors>
@@ -1082,8 +1091,8 @@
   <dimension ref="A1:N1800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+      <pane ySplit="1" topLeftCell="A1506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1481" sqref="I1481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19506,8 +19515,8 @@
       <c r="C1504" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E1504" s="11" t="s">
-        <v>43</v>
+      <c r="E1504" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="1505" spans="1:5" x14ac:dyDescent="0.2">
@@ -19520,8 +19529,8 @@
       <c r="C1505" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E1505" s="11" t="s">
-        <v>42</v>
+      <c r="E1505" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1506" spans="1:5" x14ac:dyDescent="0.2">
